--- a/res/awesome_tools/费用计算模板 Plus.xlsx
+++ b/res/awesome_tools/费用计算模板 Plus.xlsx
@@ -1281,7 +1281,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1312,14 +1312,14 @@
         <v>23</v>
       </c>
       <c r="C2" s="14">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="30">
         <f ca="1">NOW()</f>
-        <v>43731.620497800926</v>
+        <v>43731.685312615744</v>
       </c>
       <c r="F2" s="31"/>
     </row>
@@ -1329,21 +1329,21 @@
         <v>22</v>
       </c>
       <c r="C3" s="14">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="32">
         <f>DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3" s="33"/>
     </row>
     <row r="4" spans="1:8" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:8" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="str">
-        <f>统计!$C$1&amp;"年"&amp;统计!$C$2&amp;"月消费表"</f>
+        <f>IF(统计!$C$2=12,统计!$C$1+1,统计!$C$1)&amp;"年"&amp;IF(统计!$C$3&gt;20,IF(统计!$C$2=12,1,统计!$C$2+1),统计!$C$2)&amp;"月消费表"</f>
         <v>2019年12月消费表</v>
       </c>
       <c r="B5" s="27"/>
@@ -1639,7 +1639,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1649,7 +1649,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="str">
-        <f>统计!$C$1&amp;"年"&amp;统计!$C$2&amp;"月第一周"</f>
+        <f>IF(统计!$C$2=12,统计!$C$1+1,统计!$C$1)&amp;"年"&amp;IF(统计!$C$3&gt;20,IF(统计!$C$2=12,1,统计!$C$2+1),统计!$C$2)&amp;"月第一周"</f>
         <v>2019年12月第一周</v>
       </c>
       <c r="B1" s="27"/>
@@ -1668,32 +1668,32 @@
       </c>
       <c r="B2" s="44"/>
       <c r="C2" s="8" t="str">
-        <f>IF((统计!$C$3+0)&lt;=DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0)),统计!$C$2&amp;"."&amp;(统计!$C$3+0),IF(MOD((统计!$C$2+1),12)=0,12,MOD((统计!$C$2+1),12))&amp;"."&amp;((统计!$C$3+0)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))))&amp;" Mon."</f>
-        <v>12.29 Mon.</v>
+        <f>IF((统计!$C$3+0)&lt;=DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0)),统计!$C$2&amp;"."&amp;(统计!$C$3+0),IF(统计!$C$2=12,1,(统计!$C$2+1))&amp;"."&amp;((统计!$C$3+0)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))))&amp;" Mon."</f>
+        <v>11.30 Mon.</v>
       </c>
       <c r="D2" s="8" t="str">
-        <f>IF((统计!$C$3+1)&lt;=DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0)),统计!$C$2&amp;"."&amp;(统计!$C$3+1),IF(MOD((统计!$C$2+1),12)=0,12,MOD((统计!$C$2+1),12))&amp;"."&amp;((统计!$C$3+1)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))))&amp;" Tues."</f>
-        <v>12.30 Tues.</v>
+        <f>IF((统计!$C$3+1)&lt;=DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0)),统计!$C$2&amp;"."&amp;(统计!$C$3+1),IF(统计!$C$2=12,1,(统计!$C$2+1))&amp;"."&amp;((统计!$C$3+1)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))))&amp;" Tues."</f>
+        <v>12.1 Tues.</v>
       </c>
       <c r="E2" s="8" t="str">
-        <f>IF((统计!$C$3+2)&lt;=DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0)),统计!$C$2&amp;"."&amp;(统计!$C$3+2),IF(MOD((统计!$C$2+1),12)=0,12,MOD((统计!$C$2+1),12))&amp;"."&amp;((统计!$C$3+2)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))))&amp;" Wed."</f>
-        <v>12.31 Wed.</v>
+        <f>IF((统计!$C$3+2)&lt;=DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0)),统计!$C$2&amp;"."&amp;(统计!$C$3+2),IF(统计!$C$2=12,1,(统计!$C$2+1))&amp;"."&amp;((统计!$C$3+2)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))))&amp;" Wed."</f>
+        <v>12.2 Wed.</v>
       </c>
       <c r="F2" s="8" t="str">
-        <f>IF((统计!$C$3+3)&lt;=DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0)),统计!$C$2&amp;"."&amp;(统计!$C$3+3),IF(MOD((统计!$C$2+1),12)=0,12,MOD((统计!$C$2+1),12))&amp;"."&amp;((统计!$C$3+3)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))))&amp;" Thur."</f>
-        <v>1.1 Thur.</v>
+        <f>IF((统计!$C$3+3)&lt;=DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0)),统计!$C$2&amp;"."&amp;(统计!$C$3+3),IF(统计!$C$2=12,1,(统计!$C$2+1))&amp;"."&amp;((统计!$C$3+3)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))))&amp;" Thur."</f>
+        <v>12.3 Thur.</v>
       </c>
       <c r="G2" s="8" t="str">
-        <f>IF((统计!$C$3+4)&lt;=DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0)),统计!$C$2&amp;"."&amp;(统计!$C$3+4),IF(MOD((统计!$C$2+1),12)=0,12,MOD((统计!$C$2+1),12))&amp;"."&amp;((统计!$C$3+4)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))))&amp;" Fri."</f>
-        <v>1.2 Fri.</v>
+        <f>IF((统计!$C$3+4)&lt;=DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0)),统计!$C$2&amp;"."&amp;(统计!$C$3+4),IF(统计!$C$2=12,1,(统计!$C$2+1))&amp;"."&amp;((统计!$C$3+4)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))))&amp;" Fri."</f>
+        <v>12.4 Fri.</v>
       </c>
       <c r="H2" s="8" t="str">
-        <f>IF((统计!$C$3+5)&lt;=DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0)),统计!$C$2&amp;"."&amp;(统计!$C$3+5),IF(MOD((统计!$C$2+1),12)=0,12,MOD((统计!$C$2+1),12))&amp;"."&amp;((统计!$C$3+5)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))))&amp;" Sat."</f>
-        <v>1.3 Sat.</v>
+        <f>IF((统计!$C$3+5)&lt;=DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0)),统计!$C$2&amp;"."&amp;(统计!$C$3+5),IF(统计!$C$2=12,1,(统计!$C$2+1))&amp;"."&amp;((统计!$C$3+5)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))))&amp;" Sat."</f>
+        <v>12.5 Sat.</v>
       </c>
       <c r="I2" s="8" t="str">
-        <f>IF((统计!$C$3+6)&lt;=DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0)),统计!$C$2&amp;"."&amp;(统计!$C$3+6),IF(MOD((统计!$C$2+1),12)=0,12,MOD((统计!$C$2+1),12))&amp;"."&amp;((统计!$C$3+6)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))))&amp;" Sun."</f>
-        <v>1.4 Sun.</v>
+        <f>IF((统计!$C$3+6)&lt;=DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0)),统计!$C$2&amp;"."&amp;(统计!$C$3+6),IF(统计!$C$2=12,1,(统计!$C$2+1))&amp;"."&amp;((统计!$C$3+6)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))))&amp;" Sun."</f>
+        <v>12.6 Sun.</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>1</v>
@@ -2061,7 +2061,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2071,7 +2071,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="str">
-        <f>统计!$C$1&amp;"年"&amp;统计!$C$2&amp;"月第二周"</f>
+        <f>IF(统计!$C$2=12,统计!$C$1+1,统计!$C$1)&amp;"年"&amp;IF(统计!$C$3&gt;20,IF(统计!$C$2=12,1,统计!$C$2+1),统计!$C$2)&amp;"月第二周"</f>
         <v>2019年12月第二周</v>
       </c>
       <c r="B1" s="27"/>
@@ -2090,32 +2090,32 @@
       </c>
       <c r="B2" s="44"/>
       <c r="C2" s="8" t="str">
-        <f>IF((统计!$C$3+7)&lt;=DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0)),统计!$C$2&amp;"."&amp;(统计!$C$3+7),IF(MOD((统计!$C$2+1),12)=0,12,MOD((统计!$C$2+1),12))&amp;"."&amp;((统计!$C$3+7)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))))&amp;" Mon."</f>
-        <v>1.5 Mon.</v>
+        <f>IF((统计!$C$3+7)&lt;=DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0)),统计!$C$2&amp;"."&amp;(统计!$C$3+7),IF(统计!$C$2=12,1,(统计!$C$2+1))&amp;"."&amp;((统计!$C$3+7)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))))&amp;" Mon."</f>
+        <v>12.7 Mon.</v>
       </c>
       <c r="D2" s="8" t="str">
-        <f>IF((统计!$C$3+8)&lt;=DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0)),统计!$C$2&amp;"."&amp;(统计!$C$3+8),IF(MOD((统计!$C$2+1),12)=0,12,MOD((统计!$C$2+1),12))&amp;"."&amp;((统计!$C$3+8)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))))&amp;" Tues."</f>
-        <v>1.6 Tues.</v>
+        <f>IF((统计!$C$3+8)&lt;=DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0)),统计!$C$2&amp;"."&amp;(统计!$C$3+8),IF(统计!$C$2=12,1,(统计!$C$2+1))&amp;"."&amp;((统计!$C$3+8)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))))&amp;" Tues."</f>
+        <v>12.8 Tues.</v>
       </c>
       <c r="E2" s="8" t="str">
-        <f>IF((统计!$C$3+9)&lt;=DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0)),统计!$C$2&amp;"."&amp;(统计!$C$3+9),IF(MOD((统计!$C$2+1),12)=0,12,MOD((统计!$C$2+1),12))&amp;"."&amp;((统计!$C$3+9)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))))&amp;" Wed."</f>
-        <v>1.7 Wed.</v>
+        <f>IF((统计!$C$3+9)&lt;=DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0)),统计!$C$2&amp;"."&amp;(统计!$C$3+9),IF(统计!$C$2=12,1,(统计!$C$2+1))&amp;"."&amp;((统计!$C$3+9)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))))&amp;" Wed."</f>
+        <v>12.9 Wed.</v>
       </c>
       <c r="F2" s="8" t="str">
-        <f>IF((统计!$C$3+10)&lt;=DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0)),统计!$C$2&amp;"."&amp;(统计!$C$3+10),IF(MOD((统计!$C$2+1),12)=0,12,MOD((统计!$C$2+1),12))&amp;"."&amp;((统计!$C$3+10)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))))&amp;" Thur."</f>
-        <v>1.8 Thur.</v>
+        <f>IF((统计!$C$3+10)&lt;=DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0)),统计!$C$2&amp;"."&amp;(统计!$C$3+10),IF(统计!$C$2=12,1,(统计!$C$2+1))&amp;"."&amp;((统计!$C$3+10)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))))&amp;" Thur."</f>
+        <v>12.10 Thur.</v>
       </c>
       <c r="G2" s="8" t="str">
-        <f>IF((统计!$C$3+11)&lt;=DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0)),统计!$C$2&amp;"."&amp;(统计!$C$3+11),IF(MOD((统计!$C$2+1),12)=0,12,MOD((统计!$C$2+1),12))&amp;"."&amp;((统计!$C$3+11)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))))&amp;" Fri."</f>
-        <v>1.9 Fri.</v>
+        <f>IF((统计!$C$3+11)&lt;=DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0)),统计!$C$2&amp;"."&amp;(统计!$C$3+11),IF(统计!$C$2=12,1,(统计!$C$2+1))&amp;"."&amp;((统计!$C$3+11)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))))&amp;" Fri."</f>
+        <v>12.11 Fri.</v>
       </c>
       <c r="H2" s="8" t="str">
-        <f>IF((统计!$C$3+12)&lt;=DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0)),统计!$C$2&amp;"."&amp;(统计!$C$3+12),IF(MOD((统计!$C$2+1),12)=0,12,MOD((统计!$C$2+1),12))&amp;"."&amp;((统计!$C$3+12)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))))&amp;" Sat."</f>
-        <v>1.10 Sat.</v>
+        <f>IF((统计!$C$3+12)&lt;=DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0)),统计!$C$2&amp;"."&amp;(统计!$C$3+12),IF(统计!$C$2=12,1,(统计!$C$2+1))&amp;"."&amp;((统计!$C$3+12)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))))&amp;" Sat."</f>
+        <v>12.12 Sat.</v>
       </c>
       <c r="I2" s="8" t="str">
-        <f>IF((统计!$C$3+13)&lt;=DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0)),统计!$C$2&amp;"."&amp;(统计!$C$3+13),IF(MOD((统计!$C$2+1),12)=0,12,MOD((统计!$C$2+1),12))&amp;"."&amp;((统计!$C$3+13)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))))&amp;" Sun."</f>
-        <v>1.11 Sun.</v>
+        <f>IF((统计!$C$3+13)&lt;=DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0)),统计!$C$2&amp;"."&amp;(统计!$C$3+13),IF(统计!$C$2=12,1,(统计!$C$2+1))&amp;"."&amp;((统计!$C$3+13)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))))&amp;" Sun."</f>
+        <v>12.13 Sun.</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>1</v>
@@ -2484,7 +2484,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2494,7 +2494,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="str">
-        <f>统计!$C$1&amp;"年"&amp;统计!$C$2&amp;"月第三周"</f>
+        <f>IF(统计!$C$2=12,统计!$C$1+1,统计!$C$1)&amp;"年"&amp;IF(统计!$C$3&gt;20,IF(统计!$C$2=12,1,统计!$C$2+1),统计!$C$2)&amp;"月第三周"</f>
         <v>2019年12月第三周</v>
       </c>
       <c r="B1" s="27"/>
@@ -2513,32 +2513,32 @@
       </c>
       <c r="B2" s="44"/>
       <c r="C2" s="8" t="str">
-        <f>IF((统计!$C$3+14)&lt;=DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0)),统计!$C$2&amp;"."&amp;(统计!$C$3+14),IF(MOD((统计!$C$2+1),12)=0,12,MOD((统计!$C$2+1),12))&amp;"."&amp;((统计!$C$3+14)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))))&amp;" Mon."</f>
-        <v>1.12 Mon.</v>
+        <f>IF((统计!$C$3+14)&lt;=DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0)),统计!$C$2&amp;"."&amp;(统计!$C$3+14),IF(统计!$C$2=12,1,(统计!$C$2+1))&amp;"."&amp;((统计!$C$3+14)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))))&amp;" Mon."</f>
+        <v>12.14 Mon.</v>
       </c>
       <c r="D2" s="8" t="str">
-        <f>IF((统计!$C$3+15)&lt;=DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0)),统计!$C$2&amp;"."&amp;(统计!$C$3+15),IF(MOD((统计!$C$2+1),12)=0,12,MOD((统计!$C$2+1),12))&amp;"."&amp;((统计!$C$3+15)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))))&amp;" Tues."</f>
-        <v>1.13 Tues.</v>
+        <f>IF((统计!$C$3+15)&lt;=DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0)),统计!$C$2&amp;"."&amp;(统计!$C$3+15),IF(统计!$C$2=12,1,(统计!$C$2+1))&amp;"."&amp;((统计!$C$3+15)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))))&amp;" Tues."</f>
+        <v>12.15 Tues.</v>
       </c>
       <c r="E2" s="8" t="str">
-        <f>IF((统计!$C$3+16)&lt;=DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0)),统计!$C$2&amp;"."&amp;(统计!$C$3+16),IF(MOD((统计!$C$2+1),12)=0,12,MOD((统计!$C$2+1),12))&amp;"."&amp;((统计!$C$3+16)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))))&amp;" Wed."</f>
-        <v>1.14 Wed.</v>
+        <f>IF((统计!$C$3+16)&lt;=DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0)),统计!$C$2&amp;"."&amp;(统计!$C$3+16),IF(统计!$C$2=12,1,(统计!$C$2+1))&amp;"."&amp;((统计!$C$3+16)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))))&amp;" Wed."</f>
+        <v>12.16 Wed.</v>
       </c>
       <c r="F2" s="8" t="str">
-        <f>IF((统计!$C$3+17)&lt;=DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0)),统计!$C$2&amp;"."&amp;(统计!$C$3+17),IF(MOD((统计!$C$2+1),12)=0,12,MOD((统计!$C$2+1),12))&amp;"."&amp;((统计!$C$3+17)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))))&amp;" Thur."</f>
-        <v>1.15 Thur.</v>
+        <f>IF((统计!$C$3+17)&lt;=DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0)),统计!$C$2&amp;"."&amp;(统计!$C$3+17),IF(统计!$C$2=12,1,(统计!$C$2+1))&amp;"."&amp;((统计!$C$3+17)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))))&amp;" Thur."</f>
+        <v>12.17 Thur.</v>
       </c>
       <c r="G2" s="8" t="str">
-        <f>IF((统计!$C$3+18)&lt;=DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0)),统计!$C$2&amp;"."&amp;(统计!$C$3+18),IF(MOD((统计!$C$2+1),12)=0,12,MOD((统计!$C$2+1),12))&amp;"."&amp;((统计!$C$3+18)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))))&amp;" Fri."</f>
-        <v>1.16 Fri.</v>
+        <f>IF((统计!$C$3+18)&lt;=DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0)),统计!$C$2&amp;"."&amp;(统计!$C$3+18),IF(统计!$C$2=12,1,(统计!$C$2+1))&amp;"."&amp;((统计!$C$3+18)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))))&amp;" Fri."</f>
+        <v>12.18 Fri.</v>
       </c>
       <c r="H2" s="8" t="str">
-        <f>IF((统计!$C$3+19)&lt;=DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0)),统计!$C$2&amp;"."&amp;(统计!$C$3+19),IF(MOD((统计!$C$2+1),12)=0,12,MOD((统计!$C$2+1),12))&amp;"."&amp;((统计!$C$3+19)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))))&amp;" Sat."</f>
-        <v>1.17 Sat.</v>
+        <f>IF((统计!$C$3+19)&lt;=DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0)),统计!$C$2&amp;"."&amp;(统计!$C$3+19),IF(统计!$C$2=12,1,(统计!$C$2+1))&amp;"."&amp;((统计!$C$3+19)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))))&amp;" Sat."</f>
+        <v>12.19 Sat.</v>
       </c>
       <c r="I2" s="8" t="str">
-        <f>IF((统计!$C$3+20)&lt;=DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0)),统计!$C$2&amp;"."&amp;(统计!$C$3+20),IF(MOD((统计!$C$2+1),12)=0,12,MOD((统计!$C$2+1),12))&amp;"."&amp;((统计!$C$3+20)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))))&amp;" Sun."</f>
-        <v>1.18 Sun.</v>
+        <f>IF((统计!$C$3+20)&lt;=DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0)),统计!$C$2&amp;"."&amp;(统计!$C$3+20),IF(统计!$C$2=12,1,(统计!$C$2+1))&amp;"."&amp;((统计!$C$3+20)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))))&amp;" Sun."</f>
+        <v>12.20 Sun.</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>1</v>
@@ -2907,7 +2907,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2917,7 +2917,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="str">
-        <f>统计!$C$1&amp;"年"&amp;统计!$C$2&amp;"月第四周"</f>
+        <f>IF(统计!$C$2=12,统计!$C$1+1,统计!$C$1)&amp;"年"&amp;IF(统计!$C$3&gt;20,IF(统计!$C$2=12,1,统计!$C$2+1),统计!$C$2)&amp;"月第四周"</f>
         <v>2019年12月第四周</v>
       </c>
       <c r="B1" s="27"/>
@@ -2936,32 +2936,32 @@
       </c>
       <c r="B2" s="44"/>
       <c r="C2" s="8" t="str">
-        <f>IF((统计!$C$3+21)&lt;=DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0)),统计!$C$2&amp;"."&amp;(统计!$C$3+21),IF(MOD((统计!$C$2+1),12)=0,12,MOD((统计!$C$2+1),12))&amp;"."&amp;((统计!$C$3+21)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))))&amp;" Mon."</f>
-        <v>1.19 Mon.</v>
+        <f>IF((统计!$C$3+21)&lt;=DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0)),统计!$C$2&amp;"."&amp;(统计!$C$3+21),IF(统计!$C$2=12,1,(统计!$C$2+1))&amp;"."&amp;((统计!$C$3+21)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))))&amp;" Mon."</f>
+        <v>12.21 Mon.</v>
       </c>
       <c r="D2" s="8" t="str">
-        <f>IF((统计!$C$3+22)&lt;=DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0)),统计!$C$2&amp;"."&amp;(统计!$C$3+22),IF(MOD((统计!$C$2+1),12)=0,12,MOD((统计!$C$2+1),12))&amp;"."&amp;((统计!$C$3+22)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))))&amp;" Tues."</f>
-        <v>1.20 Tues.</v>
+        <f>IF((统计!$C$3+22)&lt;=DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0)),统计!$C$2&amp;"."&amp;(统计!$C$3+22),IF(统计!$C$2=12,1,(统计!$C$2+1))&amp;"."&amp;((统计!$C$3+22)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))))&amp;" Tues."</f>
+        <v>12.22 Tues.</v>
       </c>
       <c r="E2" s="8" t="str">
-        <f>IF((统计!$C$3+23)&lt;=DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0)),统计!$C$2&amp;"."&amp;(统计!$C$3+23),IF(MOD((统计!$C$2+1),12)=0,12,MOD((统计!$C$2+1),12))&amp;"."&amp;((统计!$C$3+23)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))))&amp;" Wed."</f>
-        <v>1.21 Wed.</v>
+        <f>IF((统计!$C$3+23)&lt;=DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0)),统计!$C$2&amp;"."&amp;(统计!$C$3+23),IF(统计!$C$2=12,1,(统计!$C$2+1))&amp;"."&amp;((统计!$C$3+23)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))))&amp;" Wed."</f>
+        <v>12.23 Wed.</v>
       </c>
       <c r="F2" s="8" t="str">
-        <f>IF((统计!$C$3+24)&lt;=DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0)),统计!$C$2&amp;"."&amp;(统计!$C$3+24),IF(MOD((统计!$C$2+1),12)=0,12,MOD((统计!$C$2+1),12))&amp;"."&amp;((统计!$C$3+24)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))))&amp;" Thur."</f>
-        <v>1.22 Thur.</v>
+        <f>IF((统计!$C$3+24)&lt;=DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0)),统计!$C$2&amp;"."&amp;(统计!$C$3+24),IF(统计!$C$2=12,1,(统计!$C$2+1))&amp;"."&amp;((统计!$C$3+24)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))))&amp;" Thur."</f>
+        <v>12.24 Thur.</v>
       </c>
       <c r="G2" s="8" t="str">
-        <f>IF((统计!$C$3+25)&lt;=DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0)),统计!$C$2&amp;"."&amp;(统计!$C$3+25),IF(MOD((统计!$C$2+1),12)=0,12,MOD((统计!$C$2+1),12))&amp;"."&amp;((统计!$C$3+25)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))))&amp;" Fri."</f>
-        <v>1.23 Fri.</v>
+        <f>IF((统计!$C$3+25)&lt;=DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0)),统计!$C$2&amp;"."&amp;(统计!$C$3+25),IF(统计!$C$2=12,1,(统计!$C$2+1))&amp;"."&amp;((统计!$C$3+25)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))))&amp;" Fri."</f>
+        <v>12.25 Fri.</v>
       </c>
       <c r="H2" s="8" t="str">
-        <f>IF((统计!$C$3+26)&lt;=DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0)),统计!$C$2&amp;"."&amp;(统计!$C$3+26),IF(MOD((统计!$C$2+1),12)=0,12,MOD((统计!$C$2+1),12))&amp;"."&amp;((统计!$C$3+26)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))))&amp;" Sat."</f>
-        <v>1.24 Sat.</v>
+        <f>IF((统计!$C$3+26)&lt;=DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0)),统计!$C$2&amp;"."&amp;(统计!$C$3+26),IF(统计!$C$2=12,1,(统计!$C$2+1))&amp;"."&amp;((统计!$C$3+26)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))))&amp;" Sat."</f>
+        <v>12.26 Sat.</v>
       </c>
       <c r="I2" s="8" t="str">
-        <f>IF((统计!$C$3+27)&lt;=DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0)),统计!$C$2&amp;"."&amp;(统计!$C$3+27),IF(MOD((统计!$C$2+1),12)=0,12,MOD((统计!$C$2+1),12))&amp;"."&amp;((统计!$C$3+27)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))))&amp;" Sun."</f>
-        <v>1.25 Sun.</v>
+        <f>IF((统计!$C$3+27)&lt;=DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0)),统计!$C$2&amp;"."&amp;(统计!$C$3+27),IF(统计!$C$2=12,1,(统计!$C$2+1))&amp;"."&amp;((统计!$C$3+27)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))))&amp;" Sun."</f>
+        <v>12.27 Sun.</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>1</v>
@@ -3330,7 +3330,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3340,7 +3340,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="str">
-        <f>统计!$C$1&amp;"年"&amp;统计!$C$2&amp;"月第五周"</f>
+        <f>IF(统计!$C$2=12,统计!$C$1+1,统计!$C$1)&amp;"年"&amp;IF(统计!$C$3&gt;20,IF(统计!$C$2=12,1,统计!$C$2+1),统计!$C$2)&amp;"月第五周"</f>
         <v>2019年12月第五周</v>
       </c>
       <c r="B1" s="27"/>
@@ -3359,32 +3359,32 @@
       </c>
       <c r="B2" s="44"/>
       <c r="C2" s="8" t="str">
-        <f>IF((统计!$C$3+28)&lt;=DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0)),统计!$C$2&amp;"."&amp;(统计!$C$3+28),IF(((统计!$C$3+28)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;MONTH(统计!$C$2)&amp;"/1",0))-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;IF(MOD((统计!$C$2+1),12)=0,12,MOD((统计!$C$2+1),12))&amp;"/1",0))&lt;=0),IF(MOD((统计!$C$2+1),12)=0,12,MOD((统计!$C$2+1),12))&amp;"."&amp;((统计!$C$3+28)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))),IF(MOD((统计!$C$2+2),12)=0,12,MOD((统计!$C$2+2),12))&amp;"."&amp;((统计!$C$3+28)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;IF(MOD((统计!$C$2+1),12)=0,12,MOD((统计!$C$2+1),12))&amp;"/1",0)))))&amp;" Mon."</f>
-        <v>1.26 Mon.</v>
+        <f>IF((统计!$C$3+28)&lt;=DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0)),统计!$C$2&amp;"."&amp;(统计!$C$3+28),IF(((统计!$C$3+28)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;IF(统计!$C$2=12,1,(统计!$C$2+1))&amp;"/1",0))&lt;=0),IF(统计!$C$2=12,1,(统计!$C$2+1))&amp;"."&amp;((统计!$C$3+28)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))),IF(MOD((统计!$C$2+2),12)=0,12,MOD((统计!$C$2+2),12))&amp;"."&amp;((统计!$C$3+28)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;IF(统计!$C$2=12,1,(统计!$C$2+1))&amp;"/1",0)))))&amp;" Mon."</f>
+        <v>12.28 Mon.</v>
       </c>
       <c r="D2" s="8" t="str">
-        <f>IF((统计!$C$3+29)&lt;=DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0)),统计!$C$2&amp;"."&amp;(统计!$C$3+29),IF(((统计!$C$3+29)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;MONTH(统计!$C$2)&amp;"/1",0))-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;IF(MOD((统计!$C$2+1),12)=0,12,MOD((统计!$C$2+1),12))&amp;"/1",0))&lt;=0),IF(MOD((统计!$C$2+1),12)=0,12,MOD((统计!$C$2+1),12))&amp;"."&amp;((统计!$C$3+29)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))),IF(MOD((统计!$C$2+2),12)=0,12,MOD((统计!$C$2+2),12))&amp;"."&amp;((统计!$C$3+29)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;IF(MOD((统计!$C$2+1),12)=0,12,MOD((统计!$C$2+1),12))&amp;"/1",0)))))&amp;" Tues."</f>
-        <v>1.27 Tues.</v>
+        <f>IF((统计!$C$3+29)&lt;=DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0)),统计!$C$2&amp;"."&amp;(统计!$C$3+29),IF(((统计!$C$3+29)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;IF(统计!$C$2=12,1,(统计!$C$2+1))&amp;"/1",0))&lt;=0),IF(统计!$C$2=12,1,(统计!$C$2+1))&amp;"."&amp;((统计!$C$3+29)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))),IF(MOD((统计!$C$2+2),12)=0,12,MOD((统计!$C$2+2),12))&amp;"."&amp;((统计!$C$3+29)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;IF(统计!$C$2=12,1,(统计!$C$2+1))&amp;"/1",0)))))&amp;" Tues."</f>
+        <v>12.29 Tues.</v>
       </c>
       <c r="E2" s="8" t="str">
-        <f>IF((统计!$C$3+30)&lt;=DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0)),统计!$C$2&amp;"."&amp;(统计!$C$3+30),IF(((统计!$C$3+30)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;MONTH(统计!$C$2)&amp;"/1",0))-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;IF(MOD((统计!$C$2+1),12)=0,12,MOD((统计!$C$2+1),12))&amp;"/1",0))&lt;=0),IF(MOD((统计!$C$2+1),12)=0,12,MOD((统计!$C$2+1),12))&amp;"."&amp;((统计!$C$3+30)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))),IF(MOD((统计!$C$2+2),12)=0,12,MOD((统计!$C$2+2),12))&amp;"."&amp;((统计!$C$3+30)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;IF(MOD((统计!$C$2+1),12)=0,12,MOD((统计!$C$2+1),12))&amp;"/1",0)))))&amp;" Wed."</f>
-        <v>1.28 Wed.</v>
+        <f>IF((统计!$C$3+30)&lt;=DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0)),统计!$C$2&amp;"."&amp;(统计!$C$3+30),IF(((统计!$C$3+30)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;IF(统计!$C$2=12,1,(统计!$C$2+1))&amp;"/1",0))&lt;=0),IF(统计!$C$2=12,1,(统计!$C$2+1))&amp;"."&amp;((统计!$C$3+30)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))),IF(MOD((统计!$C$2+2),12)=0,12,MOD((统计!$C$2+2),12))&amp;"."&amp;((统计!$C$3+30)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;IF(统计!$C$2=12,1,(统计!$C$2+1))&amp;"/1",0)))))&amp;" Wed."</f>
+        <v>12.30 Wed.</v>
       </c>
       <c r="F2" s="8" t="str">
-        <f>IF((统计!$C$3+31)&lt;=DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0)),统计!$C$2&amp;"."&amp;(统计!$C$3+31),IF(((统计!$C$3+31)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;MONTH(统计!$C$2)&amp;"/1",0))-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;IF(MOD((统计!$C$2+1),12)=0,12,MOD((统计!$C$2+1),12))&amp;"/1",0))&lt;=0),IF(MOD((统计!$C$2+1),12)=0,12,MOD((统计!$C$2+1),12))&amp;"."&amp;((统计!$C$3+31)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))),IF(MOD((统计!$C$2+2),12)=0,12,MOD((统计!$C$2+2),12))&amp;"."&amp;((统计!$C$3+31)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;IF(MOD((统计!$C$2+1),12)=0,12,MOD((统计!$C$2+1),12))&amp;"/1",0)))))&amp;" Thur."</f>
-        <v>1.29 Thur.</v>
+        <f>IF((统计!$C$3+31)&lt;=DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0)),统计!$C$2&amp;"."&amp;(统计!$C$3+31),IF(((统计!$C$3+31)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;IF(统计!$C$2=12,1,(统计!$C$2+1))&amp;"/1",0))&lt;=0),IF(统计!$C$2=12,1,(统计!$C$2+1))&amp;"."&amp;((统计!$C$3+31)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))),IF(MOD((统计!$C$2+2),12)=0,12,MOD((统计!$C$2+2),12))&amp;"."&amp;((统计!$C$3+31)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;IF(统计!$C$2=12,1,(统计!$C$2+1))&amp;"/1",0)))))&amp;" Thur."</f>
+        <v>12.31 Thur.</v>
       </c>
       <c r="G2" s="8" t="str">
-        <f>IF((统计!$C$3+32)&lt;=DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0)),统计!$C$2&amp;"."&amp;(统计!$C$3+32),IF(((统计!$C$3+32)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;MONTH(统计!$C$2)&amp;"/1",0))-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;IF(MOD((统计!$C$2+1),12)=0,12,MOD((统计!$C$2+1),12))&amp;"/1",0))&lt;=0),IF(MOD((统计!$C$2+1),12)=0,12,MOD((统计!$C$2+1),12))&amp;"."&amp;((统计!$C$3+32)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))),IF(MOD((统计!$C$2+2),12)=0,12,MOD((统计!$C$2+2),12))&amp;"."&amp;((统计!$C$3+32)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;IF(MOD((统计!$C$2+1),12)=0,12,MOD((统计!$C$2+1),12))&amp;"/1",0)))))&amp;" Fri."</f>
-        <v>1.30 Fri.</v>
+        <f>IF((统计!$C$3+32)&lt;=DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0)),统计!$C$2&amp;"."&amp;(统计!$C$3+32),IF(((统计!$C$3+32)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;IF(统计!$C$2=12,1,(统计!$C$2+1))&amp;"/1",0))&lt;=0),IF(统计!$C$2=12,1,(统计!$C$2+1))&amp;"."&amp;((统计!$C$3+32)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))),IF(MOD((统计!$C$2+2),12)=0,12,MOD((统计!$C$2+2),12))&amp;"."&amp;((统计!$C$3+32)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;IF(统计!$C$2=12,1,(统计!$C$2+1))&amp;"/1",0)))))&amp;" Fri."</f>
+        <v>1.1 Fri.</v>
       </c>
       <c r="H2" s="8" t="str">
-        <f>IF((统计!$C$3+33)&lt;=DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0)),统计!$C$2&amp;"."&amp;(统计!$C$3+33),IF(((统计!$C$3+33)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;MONTH(统计!$C$2)&amp;"/1",0))-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;IF(MOD((统计!$C$2+1),12)=0,12,MOD((统计!$C$2+1),12))&amp;"/1",0))&lt;=0),IF(MOD((统计!$C$2+1),12)=0,12,MOD((统计!$C$2+1),12))&amp;"."&amp;((统计!$C$3+33)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))),IF(MOD((统计!$C$2+2),12)=0,12,MOD((统计!$C$2+2),12))&amp;"."&amp;((统计!$C$3+33)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;IF(MOD((统计!$C$2+1),12)=0,12,MOD((统计!$C$2+1),12))&amp;"/1",0)))))&amp;" Sat."</f>
-        <v>1.31 Sat.</v>
+        <f>IF((统计!$C$3+33)&lt;=DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0)),统计!$C$2&amp;"."&amp;(统计!$C$3+33),IF(((统计!$C$3+33)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;IF(统计!$C$2=12,1,(统计!$C$2+1))&amp;"/1",0))&lt;=0),IF(统计!$C$2=12,1,(统计!$C$2+1))&amp;"."&amp;((统计!$C$3+33)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))),IF(MOD((统计!$C$2+2),12)=0,12,MOD((统计!$C$2+2),12))&amp;"."&amp;((统计!$C$3+33)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;IF(统计!$C$2=12,1,(统计!$C$2+1))&amp;"/1",0)))))&amp;" Sat."</f>
+        <v>1.2 Sat.</v>
       </c>
       <c r="I2" s="8" t="str">
-        <f>IF((统计!$C$3+34)&lt;=DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0)),统计!$C$2&amp;"."&amp;(统计!$C$3+34),IF(((统计!$C$3+34)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;MONTH(统计!$C$2)&amp;"/1",0))-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;IF(MOD((统计!$C$2+1),12)=0,12,MOD((统计!$C$2+1),12))&amp;"/1",0))&lt;=0),IF(MOD((统计!$C$2+1),12)=0,12,MOD((统计!$C$2+1),12))&amp;"."&amp;((统计!$C$3+34)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))),IF(MOD((统计!$C$2+2),12)=0,12,MOD((统计!$C$2+2),12))&amp;"."&amp;((统计!$C$3+34)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;IF(MOD((统计!$C$2+1),12)=0,12,MOD((统计!$C$2+1),12))&amp;"/1",0)))))&amp;" Sun."</f>
-        <v>2.1 Sun.</v>
+        <f>IF((统计!$C$3+34)&lt;=DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0)),统计!$C$2&amp;"."&amp;(统计!$C$3+34),IF(((统计!$C$3+34)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;IF(统计!$C$2=12,1,(统计!$C$2+1))&amp;"/1",0))&lt;=0),IF(统计!$C$2=12,1,(统计!$C$2+1))&amp;"."&amp;((统计!$C$3+34)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))),IF(MOD((统计!$C$2+2),12)=0,12,MOD((统计!$C$2+2),12))&amp;"."&amp;((统计!$C$3+34)-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;统计!$C$2&amp;"/1",0))-DAY(EOMONTH(统计!$C$1&amp;"/"&amp;IF(统计!$C$2=12,1,(统计!$C$2+1))&amp;"/1",0)))))&amp;" Sun."</f>
+        <v>1.3 Sun.</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>1</v>
